--- a/GeoInfo.xlsx
+++ b/GeoInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZL\Coursera\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE10C6-8F44-48E0-A7E9-3D6BAC8D7BFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F98100-2BB9-4747-B4F5-2909BB7154A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,13 +192,13 @@
     <t>Yishun</t>
   </si>
   <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Name (English)</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -547,13 +547,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D1" s="2"/>
     </row>
